--- a/relatorios/repasses_liberados/dentistas/10051722429/2023-08-25_relatorio_repasses_10051722429.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10051722429/2023-08-25_relatorio_repasses_10051722429.xlsx
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -12707,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="M604">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N604">
         <v>0</v>
@@ -28063,7 +28063,7 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N605">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N610">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N611">
         <v>0</v>
@@ -29515,10 +29515,10 @@
         <v>1</v>
       </c>
       <c r="M638">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N638">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="639" spans="1:14">
@@ -29823,7 +29823,7 @@
         <v>0</v>
       </c>
       <c r="M645">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N645">
         <v>0</v>
@@ -29911,7 +29911,7 @@
         <v>0</v>
       </c>
       <c r="M647">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N647">
         <v>0</v>
@@ -30351,7 +30351,7 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N657">
         <v>0</v>
@@ -30923,7 +30923,7 @@
         <v>0</v>
       </c>
       <c r="M670">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N670">
         <v>0</v>
@@ -30967,7 +30967,7 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N671">
         <v>0</v>
@@ -32243,7 +32243,7 @@
         <v>0</v>
       </c>
       <c r="M700">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N700">
         <v>0</v>
@@ -32287,7 +32287,7 @@
         <v>0</v>
       </c>
       <c r="M701">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N701">
         <v>0</v>
@@ -32331,7 +32331,7 @@
         <v>0</v>
       </c>
       <c r="M702">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N702">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="M705">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N705">
         <v>0</v>
@@ -33255,10 +33255,10 @@
         <v>1</v>
       </c>
       <c r="M723">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N723">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="724" spans="1:14">
@@ -33343,10 +33343,10 @@
         <v>1</v>
       </c>
       <c r="M725">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N725">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="726" spans="1:14">
@@ -33827,7 +33827,7 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N736">
         <v>0</v>
@@ -33871,7 +33871,7 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N737">
         <v>0</v>
@@ -34003,7 +34003,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N741">
         <v>0</v>
@@ -36511,7 +36511,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -36599,7 +36599,7 @@
         <v>0</v>
       </c>
       <c r="M799">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N799">
         <v>0</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="M811">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N811">
         <v>0</v>
@@ -37259,7 +37259,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -38535,7 +38535,7 @@
         <v>0</v>
       </c>
       <c r="M843">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N843">
         <v>0</v>
@@ -38579,7 +38579,7 @@
         <v>0</v>
       </c>
       <c r="M844">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N844">
         <v>0</v>
@@ -38623,7 +38623,7 @@
         <v>0</v>
       </c>
       <c r="M845">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N845">
         <v>0</v>
@@ -38667,7 +38667,7 @@
         <v>0</v>
       </c>
       <c r="M846">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N846">
         <v>0</v>
@@ -38887,7 +38887,7 @@
         <v>0</v>
       </c>
       <c r="M851">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N851">
         <v>0</v>
@@ -38931,7 +38931,7 @@
         <v>0</v>
       </c>
       <c r="M852">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N852">
         <v>0</v>
@@ -39459,7 +39459,7 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N864">
         <v>0</v>
@@ -39503,7 +39503,7 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N865">
         <v>0</v>
@@ -39547,7 +39547,7 @@
         <v>0</v>
       </c>
       <c r="M866">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N866">
         <v>0</v>
@@ -39635,7 +39635,7 @@
         <v>0</v>
       </c>
       <c r="M868">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N868">
         <v>0</v>
@@ -40119,7 +40119,7 @@
         <v>0</v>
       </c>
       <c r="M879">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N879">
         <v>0</v>
@@ -40163,7 +40163,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -40207,7 +40207,7 @@
         <v>0</v>
       </c>
       <c r="M881">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N881">
         <v>0</v>
@@ -40251,7 +40251,7 @@
         <v>0</v>
       </c>
       <c r="M882">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N882">
         <v>0</v>
@@ -40339,7 +40339,7 @@
         <v>0</v>
       </c>
       <c r="M884">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N884">
         <v>0</v>
@@ -40603,7 +40603,7 @@
         <v>0</v>
       </c>
       <c r="M890">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N890">
         <v>0</v>
@@ -40647,7 +40647,7 @@
         <v>0</v>
       </c>
       <c r="M891">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N891">
         <v>0</v>
@@ -41923,7 +41923,7 @@
         <v>0</v>
       </c>
       <c r="M920">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N920">
         <v>0</v>
@@ -42011,7 +42011,7 @@
         <v>0</v>
       </c>
       <c r="M922">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N922">
         <v>0</v>
@@ -42495,7 +42495,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -42671,7 +42671,7 @@
         <v>0</v>
       </c>
       <c r="M937">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N937">
         <v>0</v>
@@ -42715,7 +42715,7 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N938">
         <v>0</v>
@@ -42847,7 +42847,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -42891,7 +42891,7 @@
         <v>0</v>
       </c>
       <c r="M942">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N942">
         <v>0</v>
@@ -43595,7 +43595,7 @@
         <v>0</v>
       </c>
       <c r="M958">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N958">
         <v>0</v>
@@ -43639,7 +43639,7 @@
         <v>0</v>
       </c>
       <c r="M959">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N959">
         <v>0</v>
@@ -43771,7 +43771,7 @@
         <v>0</v>
       </c>
       <c r="M962">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N962">
         <v>0</v>
@@ -43815,7 +43815,7 @@
         <v>0</v>
       </c>
       <c r="M963">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N963">
         <v>0</v>
@@ -43859,7 +43859,7 @@
         <v>0</v>
       </c>
       <c r="M964">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N964">
         <v>0</v>
@@ -44915,7 +44915,7 @@
         <v>0</v>
       </c>
       <c r="M988">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N988">
         <v>0</v>
@@ -44959,7 +44959,7 @@
         <v>0</v>
       </c>
       <c r="M989">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N989">
         <v>0</v>
@@ -45795,7 +45795,7 @@
         <v>0</v>
       </c>
       <c r="M1008">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1008">
         <v>0</v>
@@ -45839,7 +45839,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46147,7 +46147,7 @@
         <v>0</v>
       </c>
       <c r="M1016">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1016">
         <v>0</v>
@@ -46191,7 +46191,7 @@
         <v>0</v>
       </c>
       <c r="M1017">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1017">
         <v>0</v>
@@ -46543,7 +46543,7 @@
         <v>0</v>
       </c>
       <c r="M1025">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1025">
         <v>0</v>
@@ -46631,7 +46631,7 @@
         <v>0</v>
       </c>
       <c r="M1027">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1027">
         <v>0</v>
@@ -46675,7 +46675,7 @@
         <v>0</v>
       </c>
       <c r="M1028">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1028">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/10051722429/2023-08-25_relatorio_repasses_10051722429.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10051722429/2023-08-25_relatorio_repasses_10051722429.xlsx
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N34">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3027,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N36">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N41">
-        <v>20.7</v>
+        <v>15.525</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3335,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N43">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3423,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N45">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3555,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>6.588</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N55">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N56">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4215,10 +4215,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N63">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4259,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4303,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4567,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4699,10 +4699,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4743,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4787,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N76">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4831,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N77">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4919,10 +4919,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4963,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N80">
-        <v>22.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5007,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5051,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N82">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5403,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N90">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5447,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N91">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5799,10 +5799,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N99">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5931,10 +5931,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N102">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N103">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6019,10 +6019,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N104">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6063,10 +6063,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N105">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6195,10 +6195,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N108">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6239,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N109">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6283,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N110">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6327,10 +6327,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N111">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6503,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N115">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6547,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N116">
-        <v>17.68</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6591,10 +6591,10 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N117">
-        <v>17.68</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6635,10 +6635,10 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N118">
-        <v>17.68</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6855,10 +6855,10 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N123">
-        <v>8.180999999999999</v>
+        <v>10.908</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6899,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N124">
-        <v>8.180999999999999</v>
+        <v>10.908</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6943,10 +6943,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N125">
-        <v>8.180999999999999</v>
+        <v>10.908</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -7119,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N129">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7163,10 +7163,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N130">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7207,10 +7207,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N131">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9935,10 +9935,10 @@
         <v>1</v>
       </c>
       <c r="M193">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N193">
-        <v>29.6</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11607,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N243">
         <v>0</v>
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N253">
         <v>0</v>
@@ -12663,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="M258">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N258">
         <v>0</v>
@@ -17063,10 +17063,10 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N355">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:14">
@@ -17107,10 +17107,10 @@
         <v>0</v>
       </c>
       <c r="M356">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N356">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -17151,10 +17151,10 @@
         <v>0</v>
       </c>
       <c r="M357">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N357">
-        <v>14.232</v>
+        <v>10.674</v>
       </c>
     </row>
     <row r="358" spans="1:14">
@@ -17195,10 +17195,10 @@
         <v>0</v>
       </c>
       <c r="M358">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N358">
-        <v>12.364</v>
+        <v>9.273</v>
       </c>
     </row>
     <row r="359" spans="1:14">
@@ -17239,10 +17239,10 @@
         <v>0</v>
       </c>
       <c r="M359">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N359">
-        <v>12.364</v>
+        <v>9.273</v>
       </c>
     </row>
     <row r="360" spans="1:14">
@@ -17723,10 +17723,10 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N370">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -17811,10 +17811,10 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N372">
-        <v>8.540000000000001</v>
+        <v>6.405</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -17855,10 +17855,10 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N373">
-        <v>8.540000000000001</v>
+        <v>6.405</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -18163,10 +18163,10 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N380">
-        <v>16.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -18207,10 +18207,10 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N381">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -18251,10 +18251,10 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N382">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -18295,10 +18295,10 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="N383">
-        <v>17.02</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -18339,10 +18339,10 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N384">
-        <v>17.02</v>
+        <v>12.765</v>
       </c>
     </row>
     <row r="385" spans="1:14">
@@ -18383,10 +18383,10 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N385">
-        <v>17.02</v>
+        <v>12.765</v>
       </c>
     </row>
     <row r="386" spans="1:14">
@@ -18427,10 +18427,10 @@
         <v>0</v>
       </c>
       <c r="M386">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N386">
-        <v>17.02</v>
+        <v>12.765</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -18471,10 +18471,10 @@
         <v>0</v>
       </c>
       <c r="M387">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N387">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="388" spans="1:14">
@@ -18647,10 +18647,10 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N391">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -18955,10 +18955,10 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N398">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -19043,10 +19043,10 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N400">
-        <v>6.861</v>
+        <v>9.148000000000001</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -19175,10 +19175,10 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N403">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -19219,10 +19219,10 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N404">
-        <v>8.388</v>
+        <v>6.290999999999999</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -19263,10 +19263,10 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N405">
-        <v>8.388</v>
+        <v>6.290999999999999</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -19351,10 +19351,10 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N407">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -19703,10 +19703,10 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N415">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -19747,10 +19747,10 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N416">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -19791,10 +19791,10 @@
         <v>0</v>
       </c>
       <c r="M417">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N417">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="418" spans="1:14">
@@ -20099,10 +20099,10 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N424">
-        <v>9.843</v>
+        <v>5</v>
       </c>
     </row>
     <row r="425" spans="1:14">
@@ -20187,10 +20187,10 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N426">
-        <v>6.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -20231,10 +20231,10 @@
         <v>0</v>
       </c>
       <c r="M427">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N427">
-        <v>6.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:14">
@@ -20407,10 +20407,10 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N431">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:14">
@@ -20451,10 +20451,10 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N432">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="433" spans="1:14">
@@ -20627,10 +20627,10 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N436">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="437" spans="1:14">
@@ -20803,10 +20803,10 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N440">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="441" spans="1:14">
@@ -20979,10 +20979,10 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N444">
-        <v>31.77200000000001</v>
+        <v>23.829</v>
       </c>
     </row>
     <row r="445" spans="1:14">
@@ -21155,10 +21155,10 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N448">
-        <v>17.02</v>
+        <v>12.765</v>
       </c>
     </row>
     <row r="449" spans="1:14">
@@ -21199,10 +21199,10 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N449">
-        <v>17.02</v>
+        <v>12.765</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -21243,10 +21243,10 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N450">
-        <v>17.02</v>
+        <v>12.765</v>
       </c>
     </row>
     <row r="451" spans="1:14">
@@ -21287,10 +21287,10 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N451">
-        <v>17.02</v>
+        <v>12.765</v>
       </c>
     </row>
     <row r="452" spans="1:14">
@@ -21331,10 +21331,10 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N452">
-        <v>42.47200000000001</v>
+        <v>31.854</v>
       </c>
     </row>
     <row r="453" spans="1:14">
@@ -21463,10 +21463,10 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N455">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="456" spans="1:14">
@@ -21551,10 +21551,10 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N457">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="458" spans="1:14">
@@ -21595,10 +21595,10 @@
         <v>0</v>
       </c>
       <c r="M458">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N458">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="459" spans="1:14">
@@ -21771,10 +21771,10 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N462">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:14">
@@ -22035,10 +22035,10 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N468">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="469" spans="1:14">
@@ -22079,10 +22079,10 @@
         <v>0</v>
       </c>
       <c r="M469">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N469">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="470" spans="1:14">
@@ -22211,10 +22211,10 @@
         <v>0</v>
       </c>
       <c r="M472">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N472">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="473" spans="1:14">
@@ -22255,10 +22255,10 @@
         <v>0</v>
       </c>
       <c r="M473">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N473">
-        <v>14.232</v>
+        <v>10.674</v>
       </c>
     </row>
     <row r="474" spans="1:14">
@@ -22519,10 +22519,10 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N479">
-        <v>7.257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:14">
@@ -22739,10 +22739,10 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N484">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:14">
@@ -22783,10 +22783,10 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N485">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="486" spans="1:14">
@@ -22827,10 +22827,10 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N486">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="487" spans="1:14">
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N489">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="490" spans="1:14">
@@ -23003,10 +23003,10 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N490">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="491" spans="1:14">
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N495">
-        <v>7.26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="496" spans="1:14">
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N496">
-        <v>7.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:14">
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="M499">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N499">
-        <v>16.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:14">
@@ -23443,10 +23443,10 @@
         <v>0</v>
       </c>
       <c r="M500">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N500">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:14">
@@ -23531,10 +23531,10 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N502">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:14">
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N504">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="505" spans="1:14">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N512">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="513" spans="1:14">
@@ -24015,10 +24015,10 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N513">
-        <v>12.364</v>
+        <v>9.273</v>
       </c>
     </row>
     <row r="514" spans="1:14">
@@ -24059,10 +24059,10 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N514">
-        <v>9.504</v>
+        <v>5</v>
       </c>
     </row>
     <row r="515" spans="1:14">
@@ -24103,10 +24103,10 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N515">
-        <v>9.504</v>
+        <v>12.672</v>
       </c>
     </row>
     <row r="516" spans="1:14">
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N523">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="524" spans="1:14">
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N524">
-        <v>16.8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="525" spans="1:14">
@@ -24543,10 +24543,10 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N525">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:14">
@@ -24719,10 +24719,10 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N529">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:14">
@@ -24763,10 +24763,10 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N530">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="531" spans="1:14">
@@ -24807,10 +24807,10 @@
         <v>0</v>
       </c>
       <c r="M531">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N531">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="532" spans="1:14">
@@ -24851,10 +24851,10 @@
         <v>0</v>
       </c>
       <c r="M532">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N532">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="533" spans="1:14">
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N533">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="534" spans="1:14">
@@ -25115,10 +25115,10 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N538">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="539" spans="1:14">
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N539">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:14">
@@ -25379,10 +25379,10 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N544">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="545" spans="1:14">
@@ -25423,10 +25423,10 @@
         <v>0</v>
       </c>
       <c r="M545">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N545">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:14">
@@ -25467,10 +25467,10 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N546">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="547" spans="1:14">
@@ -25775,10 +25775,10 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N553">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="554" spans="1:14">
@@ -25819,10 +25819,10 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N554">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="555" spans="1:14">
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N556">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="557" spans="1:14">
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N560">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="561" spans="1:14">
@@ -26127,10 +26127,10 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N561">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:14">
@@ -26171,10 +26171,10 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N562">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="563" spans="1:14">
@@ -26215,10 +26215,10 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N563">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:14">
@@ -26259,10 +26259,10 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N564">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="565" spans="1:14">
@@ -26523,10 +26523,10 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N570">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="571" spans="1:14">
@@ -26611,10 +26611,10 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N572">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="573" spans="1:14">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="M580">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N580">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="581" spans="1:14">
@@ -27447,10 +27447,10 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N591">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:14">
@@ -27491,10 +27491,10 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N592">
-        <v>22.4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="593" spans="1:14">
@@ -27535,10 +27535,10 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N593">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:14">
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N594">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="595" spans="1:14">
@@ -27623,10 +27623,10 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N595">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="596" spans="1:14">
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N596">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="597" spans="1:14">
@@ -28063,7 +28063,7 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N605">
         <v>0</v>
@@ -28239,7 +28239,7 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N609">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N610">
         <v>0</v>
@@ -28459,7 +28459,7 @@
         <v>0</v>
       </c>
       <c r="M614">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N614">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N615">
         <v>0</v>
@@ -28679,7 +28679,7 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N619">
         <v>0</v>
@@ -28723,7 +28723,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N621">
         <v>0</v>
@@ -29075,7 +29075,7 @@
         <v>0</v>
       </c>
       <c r="M628">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N628">
         <v>0</v>
@@ -29163,7 +29163,7 @@
         <v>0</v>
       </c>
       <c r="M630">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N630">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="M633">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N633">
         <v>0</v>
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
       <c r="M634">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N634">
         <v>0</v>
@@ -29383,7 +29383,7 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N635">
         <v>0</v>
@@ -29515,10 +29515,10 @@
         <v>1</v>
       </c>
       <c r="M638">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N638">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="639" spans="1:14">
@@ -29559,10 +29559,10 @@
         <v>1</v>
       </c>
       <c r="M639">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N639">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="640" spans="1:14">
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="M642">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N642">
         <v>0</v>
@@ -29735,7 +29735,7 @@
         <v>0</v>
       </c>
       <c r="M643">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N643">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M644">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N644">
         <v>0</v>
@@ -29823,7 +29823,7 @@
         <v>0</v>
       </c>
       <c r="M645">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N645">
         <v>0</v>
@@ -29867,7 +29867,7 @@
         <v>0</v>
       </c>
       <c r="M646">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N646">
         <v>0</v>
@@ -29911,7 +29911,7 @@
         <v>0</v>
       </c>
       <c r="M647">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N647">
         <v>0</v>
@@ -30175,7 +30175,7 @@
         <v>0</v>
       </c>
       <c r="M653">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N653">
         <v>0</v>
@@ -30219,7 +30219,7 @@
         <v>0</v>
       </c>
       <c r="M654">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N654">
         <v>0</v>
@@ -30263,7 +30263,7 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N655">
         <v>0</v>
@@ -30307,7 +30307,7 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N656">
         <v>0</v>
@@ -30351,7 +30351,7 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N657">
         <v>0</v>
@@ -30571,7 +30571,7 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N662">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>0</v>
       </c>
       <c r="M669">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N669">
         <v>0</v>
@@ -30923,7 +30923,7 @@
         <v>0</v>
       </c>
       <c r="M670">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N670">
         <v>0</v>
@@ -30967,7 +30967,7 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N671">
         <v>0</v>
@@ -31099,7 +31099,7 @@
         <v>0</v>
       </c>
       <c r="M674">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N674">
         <v>0</v>
@@ -31143,7 +31143,7 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N675">
         <v>0</v>
@@ -31187,7 +31187,7 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N676">
         <v>0</v>
@@ -31231,7 +31231,7 @@
         <v>0</v>
       </c>
       <c r="M677">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N677">
         <v>0</v>
@@ -31275,7 +31275,7 @@
         <v>0</v>
       </c>
       <c r="M678">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N678">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>0</v>
       </c>
       <c r="M691">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N691">
         <v>0</v>
@@ -31891,7 +31891,7 @@
         <v>0</v>
       </c>
       <c r="M692">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N692">
         <v>0</v>
@@ -31979,7 +31979,7 @@
         <v>0</v>
       </c>
       <c r="M694">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N694">
         <v>0</v>
@@ -32023,7 +32023,7 @@
         <v>0</v>
       </c>
       <c r="M695">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N695">
         <v>0</v>
@@ -32111,7 +32111,7 @@
         <v>0</v>
       </c>
       <c r="M697">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N697">
         <v>0</v>
@@ -32199,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="M699">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N699">
         <v>0</v>
@@ -32243,7 +32243,7 @@
         <v>0</v>
       </c>
       <c r="M700">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N700">
         <v>0</v>
@@ -32331,7 +32331,7 @@
         <v>0</v>
       </c>
       <c r="M702">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N702">
         <v>0</v>
@@ -32419,7 +32419,7 @@
         <v>0</v>
       </c>
       <c r="M704">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N704">
         <v>0</v>
@@ -32507,10 +32507,10 @@
         <v>1</v>
       </c>
       <c r="M706">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N706">
-        <v>27.2</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="707" spans="1:14">
@@ -32551,7 +32551,7 @@
         <v>0</v>
       </c>
       <c r="M707">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N707">
         <v>0</v>
@@ -32595,7 +32595,7 @@
         <v>0</v>
       </c>
       <c r="M708">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N708">
         <v>0</v>
@@ -32639,7 +32639,7 @@
         <v>0</v>
       </c>
       <c r="M709">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N709">
         <v>0</v>
@@ -32727,7 +32727,7 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N711">
         <v>0</v>
@@ -32771,7 +32771,7 @@
         <v>0</v>
       </c>
       <c r="M712">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N712">
         <v>0</v>
@@ -32991,7 +32991,7 @@
         <v>0</v>
       </c>
       <c r="M717">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N717">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N718">
         <v>0</v>
@@ -33211,7 +33211,7 @@
         <v>0</v>
       </c>
       <c r="M722">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N722">
         <v>0</v>
@@ -33255,10 +33255,10 @@
         <v>1</v>
       </c>
       <c r="M723">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N723">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="724" spans="1:14">
@@ -33299,10 +33299,10 @@
         <v>1</v>
       </c>
       <c r="M724">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N724">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="725" spans="1:14">
@@ -33343,10 +33343,10 @@
         <v>1</v>
       </c>
       <c r="M725">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N725">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="726" spans="1:14">
@@ -33563,10 +33563,10 @@
         <v>0.888889</v>
       </c>
       <c r="M730">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N730">
-        <v>28.444448</v>
+        <v>21.333336</v>
       </c>
     </row>
     <row r="731" spans="1:14">
@@ -33607,10 +33607,10 @@
         <v>0.111111</v>
       </c>
       <c r="M731">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N731">
-        <v>0.333333</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="732" spans="1:14">
@@ -33695,10 +33695,10 @@
         <v>1</v>
       </c>
       <c r="M733">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N733">
-        <v>38</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="734" spans="1:14">
@@ -33871,7 +33871,7 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N737">
         <v>0</v>
@@ -34003,7 +34003,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -34311,7 +34311,7 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N747">
         <v>0</v>
@@ -34355,7 +34355,7 @@
         <v>0</v>
       </c>
       <c r="M748">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N748">
         <v>0</v>
@@ -34399,7 +34399,7 @@
         <v>0</v>
       </c>
       <c r="M749">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N749">
         <v>0</v>
@@ -34531,7 +34531,7 @@
         <v>0</v>
       </c>
       <c r="M752">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N752">
         <v>0</v>
@@ -34839,7 +34839,7 @@
         <v>0</v>
       </c>
       <c r="M759">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N759">
         <v>0</v>
@@ -34883,7 +34883,7 @@
         <v>0</v>
       </c>
       <c r="M760">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N760">
         <v>0</v>
@@ -34971,7 +34971,7 @@
         <v>0</v>
       </c>
       <c r="M762">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N762">
         <v>0</v>
@@ -35499,7 +35499,7 @@
         <v>0</v>
       </c>
       <c r="M774">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N774">
         <v>0</v>
@@ -35543,7 +35543,7 @@
         <v>0</v>
       </c>
       <c r="M775">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N775">
         <v>0</v>
@@ -35763,7 +35763,7 @@
         <v>0</v>
       </c>
       <c r="M780">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N780">
         <v>0</v>
@@ -36247,7 +36247,7 @@
         <v>0</v>
       </c>
       <c r="M791">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N791">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>0</v>
       </c>
       <c r="M792">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N792">
         <v>0</v>
@@ -36511,7 +36511,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -36599,7 +36599,7 @@
         <v>0</v>
       </c>
       <c r="M799">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N799">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>0</v>
       </c>
       <c r="M810">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N810">
         <v>0</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="M811">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N811">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N812">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -37875,7 +37875,7 @@
         <v>0</v>
       </c>
       <c r="M828">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N828">
         <v>0</v>
@@ -37919,7 +37919,7 @@
         <v>0</v>
       </c>
       <c r="M829">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N829">
         <v>0</v>
@@ -38227,7 +38227,7 @@
         <v>0</v>
       </c>
       <c r="M836">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N836">
         <v>0</v>
@@ -38271,7 +38271,7 @@
         <v>0</v>
       </c>
       <c r="M837">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N837">
         <v>0</v>
@@ -38359,7 +38359,7 @@
         <v>0</v>
       </c>
       <c r="M839">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N839">
         <v>0</v>
@@ -38447,7 +38447,7 @@
         <v>0</v>
       </c>
       <c r="M841">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N841">
         <v>0</v>
@@ -38535,7 +38535,7 @@
         <v>0</v>
       </c>
       <c r="M843">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N843">
         <v>0</v>
@@ -38579,7 +38579,7 @@
         <v>0</v>
       </c>
       <c r="M844">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N844">
         <v>0</v>
@@ -38623,7 +38623,7 @@
         <v>0</v>
       </c>
       <c r="M845">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N845">
         <v>0</v>
@@ -38887,7 +38887,7 @@
         <v>0</v>
       </c>
       <c r="M851">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N851">
         <v>0</v>
@@ -38975,7 +38975,7 @@
         <v>0</v>
       </c>
       <c r="M853">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N853">
         <v>0</v>
@@ -39019,7 +39019,7 @@
         <v>0</v>
       </c>
       <c r="M854">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N854">
         <v>0</v>
@@ -39063,7 +39063,7 @@
         <v>0</v>
       </c>
       <c r="M855">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N855">
         <v>0</v>
@@ -39107,7 +39107,7 @@
         <v>0</v>
       </c>
       <c r="M856">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N856">
         <v>0</v>
@@ -39459,7 +39459,7 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N864">
         <v>0</v>
@@ -39503,7 +39503,7 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N865">
         <v>0</v>
@@ -39547,7 +39547,7 @@
         <v>0</v>
       </c>
       <c r="M866">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N866">
         <v>0</v>
@@ -39591,7 +39591,7 @@
         <v>0</v>
       </c>
       <c r="M867">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N867">
         <v>0</v>
@@ -39635,7 +39635,7 @@
         <v>0</v>
       </c>
       <c r="M868">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N868">
         <v>0</v>
@@ -39855,7 +39855,7 @@
         <v>0</v>
       </c>
       <c r="M873">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N873">
         <v>0</v>
@@ -39899,7 +39899,7 @@
         <v>0</v>
       </c>
       <c r="M874">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N874">
         <v>0</v>
@@ -39987,7 +39987,7 @@
         <v>0</v>
       </c>
       <c r="M876">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N876">
         <v>0</v>
@@ -40075,7 +40075,7 @@
         <v>0</v>
       </c>
       <c r="M878">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N878">
         <v>0</v>
@@ -40119,7 +40119,7 @@
         <v>0</v>
       </c>
       <c r="M879">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N879">
         <v>0</v>
@@ -40251,7 +40251,7 @@
         <v>0</v>
       </c>
       <c r="M882">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N882">
         <v>0</v>
@@ -40295,7 +40295,7 @@
         <v>0</v>
       </c>
       <c r="M883">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N883">
         <v>0</v>
@@ -40339,7 +40339,7 @@
         <v>0</v>
       </c>
       <c r="M884">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N884">
         <v>0</v>
@@ -40603,7 +40603,7 @@
         <v>0</v>
       </c>
       <c r="M890">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N890">
         <v>0</v>
@@ -40735,7 +40735,7 @@
         <v>0</v>
       </c>
       <c r="M893">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N893">
         <v>0</v>
@@ -41131,7 +41131,7 @@
         <v>0</v>
       </c>
       <c r="M902">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N902">
         <v>0</v>
@@ -41175,7 +41175,7 @@
         <v>0</v>
       </c>
       <c r="M903">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N903">
         <v>0</v>
@@ -41263,7 +41263,7 @@
         <v>0</v>
       </c>
       <c r="M905">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N905">
         <v>0</v>
@@ -41307,7 +41307,7 @@
         <v>0</v>
       </c>
       <c r="M906">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N906">
         <v>0</v>
@@ -41395,7 +41395,7 @@
         <v>0</v>
       </c>
       <c r="M908">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N908">
         <v>0</v>
@@ -41659,7 +41659,7 @@
         <v>0</v>
       </c>
       <c r="M914">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N914">
         <v>0</v>
@@ -41747,7 +41747,7 @@
         <v>0</v>
       </c>
       <c r="M916">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N916">
         <v>0</v>
@@ -41791,7 +41791,7 @@
         <v>0</v>
       </c>
       <c r="M917">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N917">
         <v>0</v>
@@ -41835,7 +41835,7 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N918">
         <v>0</v>
@@ -41879,7 +41879,7 @@
         <v>0</v>
       </c>
       <c r="M919">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N919">
         <v>0</v>
@@ -41923,7 +41923,7 @@
         <v>0</v>
       </c>
       <c r="M920">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N920">
         <v>0</v>
@@ -41967,7 +41967,7 @@
         <v>0</v>
       </c>
       <c r="M921">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N921">
         <v>0</v>
@@ -42451,7 +42451,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -42495,7 +42495,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -42671,7 +42671,7 @@
         <v>0</v>
       </c>
       <c r="M937">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N937">
         <v>0</v>
@@ -42715,7 +42715,7 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N938">
         <v>0</v>
@@ -42891,7 +42891,7 @@
         <v>0</v>
       </c>
       <c r="M942">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N942">
         <v>0</v>
@@ -42935,7 +42935,7 @@
         <v>0</v>
       </c>
       <c r="M943">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N943">
         <v>0</v>
@@ -43199,7 +43199,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -43463,7 +43463,7 @@
         <v>0</v>
       </c>
       <c r="M955">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N955">
         <v>0</v>
@@ -43507,7 +43507,7 @@
         <v>0</v>
       </c>
       <c r="M956">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N956">
         <v>0</v>
@@ -43771,7 +43771,7 @@
         <v>0</v>
       </c>
       <c r="M962">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N962">
         <v>0</v>
@@ -43859,7 +43859,7 @@
         <v>0</v>
       </c>
       <c r="M964">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N964">
         <v>0</v>
@@ -43991,7 +43991,7 @@
         <v>0</v>
       </c>
       <c r="M967">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N967">
         <v>0</v>
@@ -44211,7 +44211,7 @@
         <v>0</v>
       </c>
       <c r="M972">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N972">
         <v>0</v>
@@ -44915,7 +44915,7 @@
         <v>0</v>
       </c>
       <c r="M988">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N988">
         <v>0</v>
@@ -45003,7 +45003,7 @@
         <v>0</v>
       </c>
       <c r="M990">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N990">
         <v>0</v>
@@ -45267,7 +45267,7 @@
         <v>0</v>
       </c>
       <c r="M996">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N996">
         <v>0</v>
@@ -45443,7 +45443,7 @@
         <v>0</v>
       </c>
       <c r="M1000">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1000">
         <v>0</v>
@@ -45487,7 +45487,7 @@
         <v>0</v>
       </c>
       <c r="M1001">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1001">
         <v>0</v>
@@ -45531,7 +45531,7 @@
         <v>0</v>
       </c>
       <c r="M1002">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1002">
         <v>0</v>
@@ -45707,7 +45707,7 @@
         <v>0</v>
       </c>
       <c r="M1006">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1006">
         <v>0</v>
@@ -45839,7 +45839,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -45883,7 +45883,7 @@
         <v>0</v>
       </c>
       <c r="M1010">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1010">
         <v>0</v>
@@ -45927,7 +45927,7 @@
         <v>0</v>
       </c>
       <c r="M1011">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1011">
         <v>0</v>
@@ -46103,7 +46103,7 @@
         <v>0</v>
       </c>
       <c r="M1015">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1015">
         <v>0</v>
@@ -46147,7 +46147,7 @@
         <v>0</v>
       </c>
       <c r="M1016">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1016">
         <v>0</v>
@@ -46191,7 +46191,7 @@
         <v>0</v>
       </c>
       <c r="M1017">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1017">
         <v>0</v>
@@ -46235,7 +46235,7 @@
         <v>0</v>
       </c>
       <c r="M1018">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1018">
         <v>0</v>
@@ -46279,7 +46279,7 @@
         <v>0</v>
       </c>
       <c r="M1019">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1019">
         <v>0</v>
@@ -46411,7 +46411,7 @@
         <v>0</v>
       </c>
       <c r="M1022">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1022">
         <v>0</v>
@@ -46675,7 +46675,7 @@
         <v>0</v>
       </c>
       <c r="M1028">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1028">
         <v>0</v>
